--- a/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Lowell_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Lowell_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\Orleans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64A7AB-C630-4F79-A834-BD377A6DF633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C412C5C-1326-6B48-8EFD-4B5E4D07592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="139">
   <si>
     <t>County</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Class 1  Lot: 8.71 acres per du; Class 2 Lot: 4.36 acres per du; Class 3 Lot: 2.18 acres per du</t>
+  </si>
+  <si>
+    <t>Allowed/Permitted (Hearing Not required)</t>
   </si>
 </sst>
 </file>
@@ -1187,26 +1190,26 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1259,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1343,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1364,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1406,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1424,16 +1427,16 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
@@ -1441,16 +1444,16 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
@@ -1462,11 +1465,11 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1490,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1511,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1529,28 +1532,28 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1574,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1595,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="358.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="358.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -1610,7 +1613,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1623,7 +1626,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1897,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1924,7 +1927,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2226,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2235,7 +2238,7 @@
       <c r="G51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="G52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +2456,7 @@
       <c r="G63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -2465,7 +2468,7 @@
       <c r="G64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="G71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="G72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -2801,7 +2804,7 @@
       <c r="G83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="G84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="G92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -2960,7 +2963,7 @@
       <c r="G93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -3166,7 +3169,7 @@
       <c r="G104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -3178,7 +3181,7 @@
       <c r="G105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -3301,12 +3304,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -3315,7 +3318,7 @@
       <c r="G114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -3476,7 +3479,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -3518,7 +3521,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3542,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -3606,7 +3609,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -3708,7 +3711,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>90</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -3793,7 +3796,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -3823,7 +3826,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -3844,7 +3847,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>94</v>
       </c>
@@ -4235,18 +4238,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -4286,37 +4289,37 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4336,73 +4339,13 @@
         <f>Districts!H1</f>
         <v>VIL</v>
       </c>
-      <c r="F12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -4450,9 +4393,9 @@
       <selection activeCell="D16" sqref="D16:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4463,7 +4406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4474,7 +4417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -4482,7 +4425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -4490,12 +4433,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -4527,7 +4470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -4559,7 +4502,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -4591,7 +4534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>82</v>
       </c>
@@ -4623,22 +4566,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -4646,7 +4589,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -4654,7 +4597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>108</v>
       </c>
@@ -4662,7 +4605,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>103</v>
       </c>
@@ -4670,7 +4613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -4678,7 +4621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>104</v>
       </c>

--- a/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Lowell_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Lowell_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C412C5C-1326-6B48-8EFD-4B5E4D07592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FBBA19-6791-BD45-9882-513E959D8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15280" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -522,6 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4240,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4343,6 +4344,9 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45167</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
